--- a/Zusatzmaterial/Z-Order-Listen/Ritter Z-Order Liste.xlsx
+++ b/Zusatzmaterial/Z-Order-Listen/Ritter Z-Order Liste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Schild</t>
   </si>
@@ -22,39 +22,6 @@
     <t>Linker Unterarm</t>
   </si>
   <si>
-    <t>Rechter Zeigefinger oben</t>
-  </si>
-  <si>
-    <t>Linker Zeigefinger oben</t>
-  </si>
-  <si>
-    <t>Linker Mittelfinger oben</t>
-  </si>
-  <si>
-    <t>Linker  Ringfinger oben</t>
-  </si>
-  <si>
-    <t>Linker kleiner Finger oben</t>
-  </si>
-  <si>
-    <t>Linker Zeigefinger vorne</t>
-  </si>
-  <si>
-    <t>Linker Mittelfinger vorne</t>
-  </si>
-  <si>
-    <t>Linker  Ringfinger vorne</t>
-  </si>
-  <si>
-    <t>Linker kleiner Finger vorne</t>
-  </si>
-  <si>
-    <t>Linker Daumen vorne</t>
-  </si>
-  <si>
-    <t>Linker Daumen oben</t>
-  </si>
-  <si>
     <t>Linker Oberarm</t>
   </si>
   <si>
@@ -85,9 +52,6 @@
     <t>Rechter Barteil</t>
   </si>
   <si>
-    <t>Federbuschen</t>
-  </si>
-  <si>
     <t>Oberkörper</t>
   </si>
   <si>
@@ -127,37 +91,70 @@
     <t>Rechter Oberarm</t>
   </si>
   <si>
-    <t>Rechter Daumen oben</t>
-  </si>
-  <si>
-    <t>Rechter kleiner Finger vorne</t>
-  </si>
-  <si>
-    <t>Rechter Ringfinger vorne</t>
-  </si>
-  <si>
-    <t>Rechter Mittelfinger vorne</t>
-  </si>
-  <si>
-    <t>Rechter Daumen vorne</t>
-  </si>
-  <si>
-    <t>Rechter Zeigefinger vorne</t>
-  </si>
-  <si>
     <t>Schwert</t>
   </si>
   <si>
-    <t>Rechter kleiner Finger oben</t>
-  </si>
-  <si>
-    <t>Rechter Ringfinger oben</t>
-  </si>
-  <si>
-    <t>Rechter Mittelfinger oben</t>
-  </si>
-  <si>
     <t>Rechter Unterarm</t>
+  </si>
+  <si>
+    <t>LinkeHandFingerUnten</t>
+  </si>
+  <si>
+    <t>LinkeHandFingerOben</t>
+  </si>
+  <si>
+    <t>LinkeHandDaumen</t>
+  </si>
+  <si>
+    <t>RechteHandfläche</t>
+  </si>
+  <si>
+    <t>LinkeHandFläche</t>
+  </si>
+  <si>
+    <t>RechteHandFingerOben</t>
+  </si>
+  <si>
+    <t>RechteHandDaumen</t>
+  </si>
+  <si>
+    <t>RechteHandFingerUnten</t>
+  </si>
+  <si>
+    <t>FederbuschenUnten01</t>
+  </si>
+  <si>
+    <t>FederbuschenOben01</t>
+  </si>
+  <si>
+    <t>FederbuschenUnten02</t>
+  </si>
+  <si>
+    <t>FederbuschenOben02</t>
+  </si>
+  <si>
+    <t>FederbuschenUnten03</t>
+  </si>
+  <si>
+    <t>FederbuschenOben03</t>
+  </si>
+  <si>
+    <t>Halsberge</t>
+  </si>
+  <si>
+    <t>RechtesLid</t>
+  </si>
+  <si>
+    <t>LinkesLid</t>
+  </si>
+  <si>
+    <t>Linke Pupille Klein</t>
+  </si>
+  <si>
+    <t>Rechte Pupille klein</t>
+  </si>
+  <si>
+    <t>Rechter Augapfel</t>
   </si>
 </sst>
 </file>
@@ -173,12 +170,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -193,8 +196,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -499,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +518,7 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -522,7 +526,7 @@
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -530,368 +534,360 @@
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>19</v>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>20</v>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>21</v>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>22</v>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>14</v>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>23</v>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
+      <c r="B25" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>24</v>
+      <c r="B26" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>27</v>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>28</v>
+      <c r="B28" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
-        <v>29</v>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>30</v>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
-        <v>31</v>
+      <c r="B31" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
-        <v>32</v>
+      <c r="B32" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
-        <v>33</v>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
-        <v>34</v>
+      <c r="B34" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
-        <v>35</v>
+      <c r="B35" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
-        <v>36</v>
+      <c r="B36" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
-        <v>37</v>
+      <c r="B37" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
-        <v>41</v>
+      <c r="B38" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
-        <v>38</v>
+      <c r="B39" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
-        <v>39</v>
+      <c r="B40" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
-        <v>40</v>
+      <c r="B41" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
-        <v>42</v>
+      <c r="B42" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
-        <v>43</v>
+      <c r="B43" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
-        <v>44</v>
+      <c r="B44" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
-        <v>45</v>
+      <c r="B45" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
-        <v>46</v>
+      <c r="B46" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>47</v>
+      <c r="B47" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
